--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H2">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N2">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O2">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P2">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q2">
-        <v>19.19042988527143</v>
+        <v>29.91275771719399</v>
       </c>
       <c r="R2">
-        <v>19.19042988527143</v>
+        <v>269.214819454746</v>
       </c>
       <c r="S2">
-        <v>0.416896391339765</v>
+        <v>0.3872992005171082</v>
       </c>
       <c r="T2">
-        <v>0.416896391339765</v>
+        <v>0.3872992005171081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H3">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N3">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O3">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P3">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q3">
-        <v>10.17376694668926</v>
+        <v>16.914196598426</v>
       </c>
       <c r="R3">
-        <v>10.17376694668926</v>
+        <v>152.227769385834</v>
       </c>
       <c r="S3">
-        <v>0.2210167646980016</v>
+        <v>0.2189986921932684</v>
       </c>
       <c r="T3">
-        <v>0.2210167646980016</v>
+        <v>0.2189986921932683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H4">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I4">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J4">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N4">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O4">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P4">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q4">
-        <v>4.964798069995592</v>
+        <v>5.080068341252666</v>
       </c>
       <c r="R4">
-        <v>4.964798069995592</v>
+        <v>45.720615071274</v>
       </c>
       <c r="S4">
-        <v>0.1078561768280324</v>
+        <v>0.06577482510108044</v>
       </c>
       <c r="T4">
-        <v>0.1078561768280324</v>
+        <v>0.06577482510108043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H5">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I5">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J5">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N5">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O5">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P5">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q5">
-        <v>2.632077488804696</v>
+        <v>2.872529355860667</v>
       </c>
       <c r="R5">
-        <v>2.632077488804696</v>
+        <v>25.85276420274601</v>
       </c>
       <c r="S5">
-        <v>0.05717973038485627</v>
+        <v>0.03719243586649564</v>
       </c>
       <c r="T5">
-        <v>0.05717973038485627</v>
+        <v>0.03719243586649563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H6">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I6">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J6">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P6">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q6">
-        <v>5.927910640694605</v>
+        <v>14.34390771028355</v>
       </c>
       <c r="R6">
-        <v>5.927910640694605</v>
+        <v>129.095169392552</v>
       </c>
       <c r="S6">
-        <v>0.1287790095930527</v>
+        <v>0.1857195528746165</v>
       </c>
       <c r="T6">
-        <v>0.1287790095930527</v>
+        <v>0.1857195528746165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H7">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I7">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J7">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N7">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O7">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P7">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q7">
-        <v>3.142669637927881</v>
+        <v>8.110775920267557</v>
       </c>
       <c r="R7">
-        <v>3.142669637927881</v>
+        <v>72.99698328240801</v>
       </c>
       <c r="S7">
-        <v>0.06827192715629198</v>
+        <v>0.1050152934474311</v>
       </c>
       <c r="T7">
-        <v>0.06827192715629198</v>
+        <v>0.1050152934474311</v>
       </c>
     </row>
   </sheetData>
